--- a/SourceCode/2024/June_Basics/Ragini_Basics/Task 20/InputFile.xlsx
+++ b/SourceCode/2024/June_Basics/Ragini_Basics/Task 20/InputFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0109E46-C9EE-426F-A2F0-F654B1F108DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C534EF6-660F-4D70-B5A3-E605B233FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>small</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
   <si>
     <t>italy</t>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,54 +446,57 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SourceCode/2024/June_Basics/Ragini_Basics/Task 20/InputFile.xlsx
+++ b/SourceCode/2024/June_Basics/Ragini_Basics/Task 20/InputFile.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
-  <workbookPr/>
+<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{2C534EF6-660F-4D70-B5A3-E605B233FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191028"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -25,97 +26,133 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>england</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>russia</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>south korea</t>
-  </si>
-  <si>
-    <t>luxemburg</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <x:si>
+    <x:t>small</x:t>
+  </x:si>
+  <x:si>
+    <x:t>result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITALY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>england</x:t>
+  </x:si>
+  <x:si>
+    <x:t>france</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENGLAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>russia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>japan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>china</x:t>
+  </x:si>
+  <x:si>
+    <x:t>south korea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUSSIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>luxemburg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAPAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOUTH KOREA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUXEMBURG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GERMANY</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Aptos Narrow"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,72 +471,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B10"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="I15" sqref="I15"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.140625" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="B12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="B14" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="B16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="B18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>